--- a/outputs/chemical/diff_chem_basic_with_cl.xlsx
+++ b/outputs/chemical/diff_chem_basic_with_cl.xlsx
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>102.44</v>
+        <v>101.38</v>
       </c>
       <c r="D17">
         <v>107.55</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>490.55</v>
+        <v>489.5</v>
       </c>
       <c r="D23">
         <v>275.66</v>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>4.29</v>
+        <v>4.12</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>19.37</v>
+        <v>19.2</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>31.4</v>
+        <v>35.01</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>166.56</v>
+        <v>168.97</v>
       </c>
       <c r="D127">
         <v>35.39</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>488.24</v>
+        <v>487.51</v>
       </c>
       <c r="D129">
         <v>352.37</v>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="C133">
-        <v>773.96</v>
+        <v>779.25</v>
       </c>
       <c r="D133">
         <v>398.54</v>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>3.22</v>
+        <v>3.18</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>4.83</v>
+        <v>4.99</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="C162">
-        <v>9.59</v>
+        <v>9.58</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="C166">
-        <v>17.65</v>
+        <v>17.75</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="C226">
-        <v>546.04</v>
+        <v>545.71</v>
       </c>
       <c r="D226">
         <v>125.25</v>
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="C230">
-        <v>828.58</v>
+        <v>828.24</v>
       </c>
       <c r="D230">
         <v>188.1</v>
